--- a/template2021-2022.xlsx
+++ b/template2021-2022.xlsx
@@ -441,6 +441,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -456,10 +460,6 @@
     <xf numFmtId="164" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -607,21 +607,21 @@
   </sheetPr>
   <dimension ref="A1:N1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C64" activeCellId="0" sqref="C64"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N35" activeCellId="0" sqref="N35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="13.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="13.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="17.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="17.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="17.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="17.41"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1396,39 +1396,39 @@
       <c r="H44" s="19"/>
       <c r="I44" s="20"/>
       <c r="J44" s="19"/>
-      <c r="K44" s="16" t="str">
+      <c r="K44" s="21" t="str">
         <f aca="false">IF(AND(B44="",C44="",D44="",E44="",G44="",I44="",J44=""),"",(IF(OR(B44="",C44="",D44="",E44="",G44="",I44="",J44=""),"Donnée manquante",((E44*60+F44)/(G44*60+H44)))))</f>
         <v/>
       </c>
-      <c r="L44" s="21" t="str">
+      <c r="L44" s="22" t="str">
         <f aca="false">IF(OR(K44="Donnée manquante",K44=""),"",$D$64-SUM($K$25:K44,$C$49))</f>
         <v/>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D46" s="22" t="s">
+      <c r="D46" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
     </row>
     <row r="47" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="23" t="s">
+      <c r="A47" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
     </row>
     <row r="48" customFormat="false" ht="52.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="9" t="s">
@@ -1440,17 +1440,17 @@
       <c r="C48" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
     </row>
     <row r="49" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="24"/>
-      <c r="B49" s="25" t="n">
+      <c r="A49" s="25"/>
+      <c r="B49" s="21" t="n">
         <f aca="false">C49*1607/7</f>
         <v>0</v>
       </c>
@@ -1460,14 +1460,14 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="23" t="s">
+      <c r="A51" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B51" s="23"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
       <c r="G51" s="27" t="s">
         <v>21</v>
       </c>
@@ -1567,14 +1567,14 @@
       <c r="K57" s="27"/>
     </row>
     <row r="58" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="23" t="s">
+      <c r="A58" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B58" s="23"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
     </row>
     <row r="59" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="35" t="s">

--- a/template2021-2022.xlsx
+++ b/template2021-2022.xlsx
@@ -20,9 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
   <si>
     <t xml:space="preserve">Demande de Crédit Temps Syndical 2020-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aide-mémoire</t>
   </si>
   <si>
     <t xml:space="preserve">Ce fichier est nominatif à votre syndicat. Le total d'ETP attribués à votre syndicat par les règles de répartition en vigueur est prérempli.
@@ -34,6 +37,42 @@
 - Mutualisation académique : les syndicats donateurs et bénéficiaires doivent remplir chacun leur partie du tableau. Une ligne par syndicat bénéficiaire ou donateur.</t>
   </si>
   <si>
+    <t xml:space="preserve">Corps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code Corps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AESH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1807 ou 35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agrégé-e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certifié-e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prof. Doc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L’ORS doit toujours être exprimée pour un temps-plein</t>
+  </si>
+  <si>
     <t xml:space="preserve">Décharges locales</t>
   </si>
   <si>
@@ -58,7 +97,7 @@
     <t xml:space="preserve">Heures d'obligations de service</t>
   </si>
   <si>
-    <t xml:space="preserve">Minutes d'obligations de service (saisir 0 si heures pleines)</t>
+    <t xml:space="preserve">Minutes d'obligations de service → saisir 0</t>
   </si>
   <si>
     <t xml:space="preserve">Code Corps (voir annexe)</t>
@@ -159,7 +198,7 @@
     <numFmt numFmtId="167" formatCode="0.000"/>
     <numFmt numFmtId="168" formatCode="0.########"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -197,6 +236,39 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
@@ -217,7 +289,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,6 +300,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00CC33"/>
         <bgColor rgb="FF339966"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEEEEE"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -245,7 +323,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB2B2B2"/>
-        <bgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FF999999"/>
       </patternFill>
     </fill>
     <fill>
@@ -261,7 +339,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -270,10 +348,26 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="medium"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="hair"/>
       <right style="hair"/>
       <top style="hair"/>
       <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -356,7 +450,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="48">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -377,31 +471,51 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -409,59 +523,59 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -469,60 +583,64 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -555,9 +673,9 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FFB2B2B2"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFEEEEEE"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -586,7 +704,7 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FFB2B2B2"/>
+      <rgbColor rgb="FF999999"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -607,21 +725,21 @@
   </sheetPr>
   <dimension ref="A1:N1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N35" activeCellId="0" sqref="N35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="13.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="13.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="17.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="17.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="17.4"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -650,1036 +768,1067 @@
     </row>
     <row r="3" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F3" s="4"/>
+      <c r="J3" s="5" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="0"/>
+      <c r="J4" s="0"/>
+      <c r="K4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="0"/>
+      <c r="I5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="0"/>
+      <c r="I6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="9" t="n">
+        <v>789</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="K7" s="9" t="n">
+        <v>551</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="0"/>
+      <c r="I8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="8" t="n">
+        <v>18</v>
+      </c>
+      <c r="K8" s="9" t="n">
+        <v>553</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="0"/>
+      <c r="I9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="K9" s="9" t="n">
+        <v>563</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="0"/>
+      <c r="I10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="8" t="n">
+        <v>27</v>
+      </c>
+      <c r="K10" s="9" t="n">
+        <v>615</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="0"/>
+      <c r="I11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="8" t="n">
+        <v>36</v>
+      </c>
+      <c r="K11" s="9" t="n">
+        <v>993</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="0"/>
+      <c r="I12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="9" t="n">
+        <v>790</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="0"/>
+      <c r="J13" s="0"/>
+      <c r="K13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="0"/>
+      <c r="I14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="0"/>
+      <c r="K14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="0"/>
+      <c r="J15" s="0"/>
+      <c r="K15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="0"/>
+      <c r="J16" s="0"/>
+      <c r="K16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="0"/>
+      <c r="J17" s="0"/>
+      <c r="K17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="0"/>
+      <c r="J18" s="0"/>
+      <c r="K18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="0"/>
+      <c r="J19" s="0"/>
+      <c r="K19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6"/>
+      <c r="A20" s="11"/>
     </row>
     <row r="21" customFormat="false" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6"/>
-      <c r="E21" s="7" t="str">
+      <c r="A21" s="11"/>
+      <c r="E21" s="12" t="str">
         <f aca="false">"ETP Proposés : "&amp;B64</f>
         <v>ETP Proposés : 0,567</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
     </row>
     <row r="23" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
+      <c r="A23" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
     </row>
     <row r="24" customFormat="false" ht="52.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K24" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="L24" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
+      <c r="A24" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13" t="str">
+      <c r="A25" s="18" t="str">
         <f aca="false">$A$64</f>
         <v>Ain (01)</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="16" t="str">
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="21" t="str">
         <f aca="false">IF(AND(B25="",C25="",D25="",E25="",G25="",I25="",J25=""),"",(IF(OR(B25="",C25="",D25="",E25="",G25="",I25="",J25=""),"Donnée manquante",((E25*60+F25)/(G25*60+H25)))))</f>
         <v/>
       </c>
-      <c r="L25" s="17" t="str">
+      <c r="L25" s="22" t="str">
         <f aca="false">IF(OR(K25="Donnée manquante",K25=""),"",$D$64-SUM($K$25:K25,$C$49))</f>
         <v/>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13" t="str">
+      <c r="A26" s="18" t="str">
         <f aca="false">$A$64</f>
         <v>Ain (01)</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="16" t="str">
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="21" t="str">
         <f aca="false">IF(AND(B26="",C26="",D26="",E26="",G26="",I26="",J26=""),"",(IF(OR(B26="",C26="",D26="",E26="",G26="",I26="",J26=""),"Donnée manquante",((E26*60+F26)/(G26*60+H26)))))</f>
         <v/>
       </c>
-      <c r="L26" s="17" t="str">
+      <c r="L26" s="22" t="str">
         <f aca="false">IF(OR(K26="Donnée manquante",K26=""),"",$D$64-SUM($K$25:K26,$C$49))</f>
         <v/>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="13" t="str">
+      <c r="A27" s="18" t="str">
         <f aca="false">$A$64</f>
         <v>Ain (01)</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="16" t="str">
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="21" t="str">
         <f aca="false">IF(AND(B27="",C27="",D27="",E27="",G27="",I27="",J27=""),"",(IF(OR(B27="",C27="",D27="",E27="",G27="",I27="",J27=""),"Donnée manquante",((E27*60+F27)/(G27*60+H27)))))</f>
         <v/>
       </c>
-      <c r="L27" s="17" t="str">
+      <c r="L27" s="22" t="str">
         <f aca="false">IF(OR(K27="Donnée manquante",K27=""),"",$D$64-SUM($K$25:K27,$C$49))</f>
         <v/>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13" t="str">
+      <c r="A28" s="18" t="str">
         <f aca="false">$A$64</f>
         <v>Ain (01)</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="16" t="str">
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="21" t="str">
         <f aca="false">IF(AND(B28="",C28="",D28="",E28="",G28="",I28="",J28=""),"",(IF(OR(B28="",C28="",D28="",E28="",G28="",I28="",J28=""),"Donnée manquante",((E28*60+F28)/(G28*60+H28)))))</f>
         <v/>
       </c>
-      <c r="L28" s="17" t="str">
+      <c r="L28" s="22" t="str">
         <f aca="false">IF(OR(K28="Donnée manquante",K28=""),"",$D$64-SUM($K$25:K28,$C$49))</f>
         <v/>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="13" t="str">
+      <c r="A29" s="18" t="str">
         <f aca="false">$A$64</f>
         <v>Ain (01)</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="16" t="str">
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="21" t="str">
         <f aca="false">IF(AND(B29="",C29="",D29="",E29="",G29="",I29="",J29=""),"",(IF(OR(B29="",C29="",D29="",E29="",G29="",I29="",J29=""),"Donnée manquante",((E29*60+F29)/(G29*60+H29)))))</f>
         <v/>
       </c>
-      <c r="L29" s="17" t="str">
+      <c r="L29" s="22" t="str">
         <f aca="false">IF(OR(K29="Donnée manquante",K29=""),"",$D$64-SUM($K$25:K29,$C$49))</f>
         <v/>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="13" t="str">
+      <c r="A30" s="18" t="str">
         <f aca="false">$A$64</f>
         <v>Ain (01)</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="16" t="str">
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="21" t="str">
         <f aca="false">IF(AND(B30="",C30="",D30="",E30="",G30="",I30="",J30=""),"",(IF(OR(B30="",C30="",D30="",E30="",G30="",I30="",J30=""),"Donnée manquante",((E30*60+F30)/(G30*60+H30)))))</f>
         <v/>
       </c>
-      <c r="L30" s="17" t="str">
+      <c r="L30" s="22" t="str">
         <f aca="false">IF(OR(K30="Donnée manquante",K30=""),"",$D$64-SUM($K$25:K30,$C$49))</f>
         <v/>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="13" t="str">
+      <c r="A31" s="18" t="str">
         <f aca="false">$A$64</f>
         <v>Ain (01)</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="16" t="str">
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="21" t="str">
         <f aca="false">IF(AND(B31="",C31="",D31="",E31="",G31="",I31="",J31=""),"",(IF(OR(B31="",C31="",D31="",E31="",G31="",I31="",J31=""),"Donnée manquante",((E31*60+F31)/(G31*60+H31)))))</f>
         <v/>
       </c>
-      <c r="L31" s="17" t="str">
+      <c r="L31" s="22" t="str">
         <f aca="false">IF(OR(K31="Donnée manquante",K31=""),"",$D$64-SUM($K$25:K31,$C$49))</f>
         <v/>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="13" t="str">
+      <c r="A32" s="18" t="str">
         <f aca="false">$A$64</f>
         <v>Ain (01)</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="16" t="str">
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="21" t="str">
         <f aca="false">IF(AND(B32="",C32="",D32="",E32="",G32="",I32="",J32=""),"",(IF(OR(B32="",C32="",D32="",E32="",G32="",I32="",J32=""),"Donnée manquante",((E32*60+F32)/(G32*60+H32)))))</f>
         <v/>
       </c>
-      <c r="L32" s="17" t="str">
+      <c r="L32" s="22" t="str">
         <f aca="false">IF(OR(K32="Donnée manquante",K32=""),"",$D$64-SUM($K$25:K32,$C$49))</f>
         <v/>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="13" t="str">
+      <c r="A33" s="18" t="str">
         <f aca="false">$A$64</f>
         <v>Ain (01)</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="16" t="str">
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="21" t="str">
         <f aca="false">IF(AND(B33="",C33="",D33="",E33="",G33="",I33="",J33=""),"",(IF(OR(B33="",C33="",D33="",E33="",G33="",I33="",J33=""),"Donnée manquante",((E33*60+F33)/(G33*60+H33)))))</f>
         <v/>
       </c>
-      <c r="L33" s="17" t="str">
+      <c r="L33" s="22" t="str">
         <f aca="false">IF(OR(K33="Donnée manquante",K33=""),"",$D$64-SUM($K$25:K33,$C$49))</f>
         <v/>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="13" t="str">
+      <c r="A34" s="18" t="str">
         <f aca="false">$A$64</f>
         <v>Ain (01)</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="16" t="str">
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="21" t="str">
         <f aca="false">IF(AND(B34="",C34="",D34="",E34="",G34="",I34="",J34=""),"",(IF(OR(B34="",C34="",D34="",E34="",G34="",I34="",J34=""),"Donnée manquante",((E34*60+F34)/(G34*60+H34)))))</f>
         <v/>
       </c>
-      <c r="L34" s="17" t="str">
+      <c r="L34" s="22" t="str">
         <f aca="false">IF(OR(K34="Donnée manquante",K34=""),"",$D$64-SUM($K$25:K34,$C$49))</f>
         <v/>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="13" t="str">
+      <c r="A35" s="18" t="str">
         <f aca="false">$A$64</f>
         <v>Ain (01)</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="16" t="str">
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="21" t="str">
         <f aca="false">IF(AND(B35="",C35="",D35="",E35="",G35="",I35="",J35=""),"",(IF(OR(B35="",C35="",D35="",E35="",G35="",I35="",J35=""),"Donnée manquante",((E35*60+F35)/(G35*60+H35)))))</f>
         <v/>
       </c>
-      <c r="L35" s="17" t="str">
+      <c r="L35" s="22" t="str">
         <f aca="false">IF(OR(K35="Donnée manquante",K35=""),"",$D$64-SUM($K$25:K35,$C$49))</f>
         <v/>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="13" t="str">
+      <c r="A36" s="18" t="str">
         <f aca="false">$A$64</f>
         <v>Ain (01)</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="16" t="str">
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="21" t="str">
         <f aca="false">IF(AND(B36="",C36="",D36="",E36="",G36="",I36="",J36=""),"",(IF(OR(B36="",C36="",D36="",E36="",G36="",I36="",J36=""),"Donnée manquante",((E36*60+F36)/(G36*60+H36)))))</f>
         <v/>
       </c>
-      <c r="L36" s="17" t="str">
+      <c r="L36" s="22" t="str">
         <f aca="false">IF(OR(K36="Donnée manquante",K36=""),"",$D$64-SUM($K$25:K36,$C$49))</f>
         <v/>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="13" t="str">
+      <c r="A37" s="18" t="str">
         <f aca="false">$A$64</f>
         <v>Ain (01)</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="16" t="str">
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="21" t="str">
         <f aca="false">IF(AND(B37="",C37="",D37="",E37="",G37="",I37="",J37=""),"",(IF(OR(B37="",C37="",D37="",E37="",G37="",I37="",J37=""),"Donnée manquante",((E37*60+F37)/(G37*60+H37)))))</f>
         <v/>
       </c>
-      <c r="L37" s="17" t="str">
+      <c r="L37" s="22" t="str">
         <f aca="false">IF(OR(K37="Donnée manquante",K37=""),"",$D$64-SUM($K$25:K37,$C$49))</f>
         <v/>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="13" t="str">
+      <c r="A38" s="18" t="str">
         <f aca="false">$A$64</f>
         <v>Ain (01)</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="16" t="str">
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="21" t="str">
         <f aca="false">IF(AND(B38="",C38="",D38="",E38="",G38="",I38="",J38=""),"",(IF(OR(B38="",C38="",D38="",E38="",G38="",I38="",J38=""),"Donnée manquante",((E38*60+F38)/(G38*60+H38)))))</f>
         <v/>
       </c>
-      <c r="L38" s="17" t="str">
+      <c r="L38" s="22" t="str">
         <f aca="false">IF(OR(K38="Donnée manquante",K38=""),"",$D$64-SUM($K$25:K38,$C$49))</f>
         <v/>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="13" t="str">
+      <c r="A39" s="18" t="str">
         <f aca="false">$A$64</f>
         <v>Ain (01)</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="16" t="str">
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="21" t="str">
         <f aca="false">IF(AND(B39="",C39="",D39="",E39="",G39="",I39="",J39=""),"",(IF(OR(B39="",C39="",D39="",E39="",G39="",I39="",J39=""),"Donnée manquante",((E39*60+F39)/(G39*60+H39)))))</f>
         <v/>
       </c>
-      <c r="L39" s="17" t="str">
+      <c r="L39" s="22" t="str">
         <f aca="false">IF(OR(K39="Donnée manquante",K39=""),"",$D$64-SUM($K$25:K39,$C$49))</f>
         <v/>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="13" t="str">
+      <c r="A40" s="18" t="str">
         <f aca="false">$A$64</f>
         <v>Ain (01)</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="16" t="str">
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="21" t="str">
         <f aca="false">IF(AND(B40="",C40="",D40="",E40="",G40="",I40="",J40=""),"",(IF(OR(B40="",C40="",D40="",E40="",G40="",I40="",J40=""),"Donnée manquante",((E40*60+F40)/(G40*60+H40)))))</f>
         <v/>
       </c>
-      <c r="L40" s="17" t="str">
+      <c r="L40" s="22" t="str">
         <f aca="false">IF(OR(K40="Donnée manquante",K40=""),"",$D$64-SUM($K$25:K40,$C$49))</f>
         <v/>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="13" t="str">
+      <c r="A41" s="18" t="str">
         <f aca="false">$A$64</f>
         <v>Ain (01)</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="16" t="str">
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="21" t="str">
         <f aca="false">IF(AND(B41="",C41="",D41="",E41="",G41="",I41="",J41=""),"",(IF(OR(B41="",C41="",D41="",E41="",G41="",I41="",J41=""),"Donnée manquante",((E41*60+F41)/(G41*60+H41)))))</f>
         <v/>
       </c>
-      <c r="L41" s="17" t="str">
+      <c r="L41" s="22" t="str">
         <f aca="false">IF(OR(K41="Donnée manquante",K41=""),"",$D$64-SUM($K$25:K41,$C$49))</f>
         <v/>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="13" t="str">
+      <c r="A42" s="18" t="str">
         <f aca="false">$A$64</f>
         <v>Ain (01)</v>
       </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="16" t="str">
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="21" t="str">
         <f aca="false">IF(AND(B42="",C42="",D42="",E42="",G42="",I42="",J42=""),"",(IF(OR(B42="",C42="",D42="",E42="",G42="",I42="",J42=""),"Donnée manquante",((E42*60+F42)/(G42*60+H42)))))</f>
         <v/>
       </c>
-      <c r="L42" s="17" t="str">
+      <c r="L42" s="22" t="str">
         <f aca="false">IF(OR(K42="Donnée manquante",K42=""),"",$D$64-SUM($K$25:K42,$C$49))</f>
         <v/>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="13" t="str">
+      <c r="A43" s="18" t="str">
         <f aca="false">$A$64</f>
         <v>Ain (01)</v>
       </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="16" t="str">
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="21" t="str">
         <f aca="false">IF(AND(B43="",C43="",D43="",E43="",G43="",I43="",J43=""),"",(IF(OR(B43="",C43="",D43="",E43="",G43="",I43="",J43=""),"Donnée manquante",((E43*60+F43)/(G43*60+H43)))))</f>
         <v/>
       </c>
-      <c r="L43" s="17" t="str">
+      <c r="L43" s="22" t="str">
         <f aca="false">IF(OR(K43="Donnée manquante",K43=""),"",$D$64-SUM($K$25:K43,$C$49))</f>
         <v/>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="18" t="str">
+      <c r="A44" s="23" t="str">
         <f aca="false">$A$64</f>
         <v>Ain (01)</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="21" t="str">
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="26" t="str">
         <f aca="false">IF(AND(B44="",C44="",D44="",E44="",G44="",I44="",J44=""),"",(IF(OR(B44="",C44="",D44="",E44="",G44="",I44="",J44=""),"Donnée manquante",((E44*60+F44)/(G44*60+H44)))))</f>
         <v/>
       </c>
-      <c r="L44" s="22" t="str">
+      <c r="L44" s="27" t="str">
         <f aca="false">IF(OR(K44="Donnée manquante",K44=""),"",$D$64-SUM($K$25:K44,$C$49))</f>
         <v/>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D46" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
+      <c r="D46" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
     </row>
     <row r="47" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
+      <c r="A47" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
     </row>
     <row r="48" customFormat="false" ht="52.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
+      <c r="A48" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
     </row>
     <row r="49" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="25"/>
-      <c r="B49" s="21" t="n">
+      <c r="A49" s="30"/>
+      <c r="B49" s="26" t="n">
         <f aca="false">C49*1607/7</f>
         <v>0</v>
       </c>
-      <c r="C49" s="26" t="n">
+      <c r="C49" s="31" t="n">
         <f aca="false">A49*3.5/1607</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="H51" s="27"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="27"/>
+      <c r="A51" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="H51" s="32"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="32"/>
+      <c r="K51" s="32"/>
     </row>
     <row r="52" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B52" s="28"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="27"/>
+      <c r="A52" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52" s="33"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="32"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="32"/>
     </row>
     <row r="53" customFormat="false" ht="47.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B53" s="29"/>
-      <c r="C53" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="D53" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E53" s="29"/>
-      <c r="F53" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="27"/>
-      <c r="K53" s="27"/>
+      <c r="A53" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B53" s="34"/>
+      <c r="C53" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D53" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E53" s="34"/>
+      <c r="F53" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32"/>
     </row>
     <row r="54" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="31"/>
-      <c r="B54" s="31"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="27"/>
-      <c r="K54" s="27"/>
+      <c r="A54" s="36"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="32"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="32"/>
     </row>
     <row r="55" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="31"/>
-      <c r="B55" s="31"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="31"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="27"/>
-      <c r="K55" s="27"/>
+      <c r="A55" s="36"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="32"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="32"/>
     </row>
     <row r="56" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="31"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="27"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="27"/>
-      <c r="K56" s="27"/>
+      <c r="A56" s="36"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="32"/>
     </row>
     <row r="57" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="33"/>
-      <c r="B57" s="33"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="27"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="27"/>
-      <c r="K57" s="27"/>
+      <c r="A57" s="38"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="32"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="32"/>
     </row>
     <row r="58" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B58" s="24"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
+      <c r="A58" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B58" s="29"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
     </row>
     <row r="59" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="B59" s="35"/>
-      <c r="C59" s="36" t="n">
+      <c r="A59" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B59" s="40"/>
+      <c r="C59" s="41" t="n">
         <f aca="false">SUM(C54:C57)</f>
         <v>0</v>
       </c>
-      <c r="D59" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="E59" s="35"/>
-      <c r="F59" s="36" t="n">
+      <c r="D59" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="E59" s="40"/>
+      <c r="F59" s="41" t="n">
         <f aca="false">SUM(F54:F57)</f>
         <v>0</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="B61" s="37"/>
-      <c r="C61" s="37"/>
-      <c r="D61" s="37"/>
-      <c r="E61" s="37"/>
-      <c r="F61" s="37"/>
-      <c r="G61" s="37"/>
-      <c r="H61" s="37"/>
+      <c r="A61" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B61" s="42"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
     </row>
     <row r="62" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10" t="s">
+      <c r="A62" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F62" s="15"/>
+      <c r="G62" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H62" s="16"/>
+    </row>
+    <row r="63" customFormat="false" ht="47.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="43"/>
+      <c r="B63" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C63" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F62" s="10"/>
-      <c r="G62" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H62" s="11"/>
-    </row>
-    <row r="63" customFormat="false" ht="47.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="38"/>
-      <c r="B63" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F63" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
+      <c r="D63" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B64" s="40" t="n">
+      <c r="A64" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B64" s="45" t="n">
         <v>0.567</v>
       </c>
-      <c r="C64" s="40" t="n">
+      <c r="C64" s="45" t="n">
         <f aca="false">F59-C59</f>
         <v>0</v>
       </c>
-      <c r="D64" s="40" t="n">
+      <c r="D64" s="45" t="n">
         <f aca="false">B64+C64</f>
         <v>0.567</v>
       </c>
-      <c r="E64" s="40" t="n">
+      <c r="E64" s="45" t="n">
         <f aca="false">SUM(K25:K44)</f>
         <v>0</v>
       </c>
-      <c r="F64" s="40" t="n">
+      <c r="F64" s="45" t="n">
         <f aca="false">C49</f>
         <v>0</v>
       </c>
-      <c r="G64" s="41" t="str">
+      <c r="G64" s="46" t="str">
         <f aca="false">IF(SUM(E64:F64)&gt;D64,"Vous dépassez de "&amp;ROUND((SUM(E64:F64)-D64),3)&amp;" ETP",IF(SUM(E64:F64)&lt;=D64,"Vous rendez "&amp;ABS(ROUND(SUM(E64:F64)-D64,3))&amp;" ETP","Erreur"))</f>
         <v>Vous rendez 0,567 ETP</v>
       </c>
-      <c r="H64" s="41"/>
-      <c r="I64" s="41" t="str">
-        <f aca="false">IF(E64+F64&gt;D64,"Règles fédérales outrepassées","Règles fédérales respectées")</f>
+      <c r="H64" s="46"/>
+      <c r="I64" s="47" t="str">
+        <f aca="false">IF(E64+F64&gt;D64,"Trop d’ETP consommés : votre tableau sera refusé","Règles fédérales respectées")</f>
         <v>Règles fédérales respectées</v>
       </c>
-      <c r="J64" s="41"/>
+      <c r="J64" s="47"/>
+      <c r="K64" s="47"/>
     </row>
     <row r="65" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="12"/>
+      <c r="A65" s="17"/>
     </row>
     <row r="66" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="I66" s="1"/>
@@ -1701,7 +1850,7 @@
   <mergeCells count="31">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="E2:G2"/>
-    <mergeCell ref="A4:L19"/>
+    <mergeCell ref="A4:G19"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="A23:L23"/>
     <mergeCell ref="D46:J48"/>
@@ -1729,7 +1878,7 @@
     <mergeCell ref="E62:F62"/>
     <mergeCell ref="G62:H63"/>
     <mergeCell ref="G64:H64"/>
-    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="I64:K64"/>
   </mergeCells>
   <dataValidations count="12">
     <dataValidation allowBlank="false" error="Un code corps comprend trois chiffres." errorStyle="stop" errorTitle="Mauvais code corps" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I25:I44" type="custom">

--- a/template2021-2022.xlsx
+++ b/template2021-2022.xlsx
@@ -240,6 +240,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -253,12 +254,14 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -348,17 +351,17 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top style="medium"/>
       <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -471,15 +474,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -511,7 +514,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -527,15 +530,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -639,7 +642,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -725,11 +728,11 @@
   </sheetPr>
   <dimension ref="A1:N1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M5" activeCellId="0" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="13.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="13.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.42"/>

--- a/template2021-2022.xlsx
+++ b/template2021-2022.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
   <si>
-    <t xml:space="preserve">Demande de Crédit Temps Syndical 2020-2021</t>
+    <t xml:space="preserve">Demande de Crédit Temps Syndical 2021-2022</t>
   </si>
   <si>
     <t xml:space="preserve">Aide-mémoire</t>
@@ -729,10 +729,10 @@
   <dimension ref="A1:N1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M5" activeCellId="0" sqref="M5"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="13.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="13.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.42"/>

--- a/template2021-2022.xlsx
+++ b/template2021-2022.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
   <si>
     <t xml:space="preserve">Demande de Crédit Temps Syndical 2021-2022</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t xml:space="preserve">Heures d'obligations de service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minutes d'obligations de service → saisir 0</t>
   </si>
   <si>
     <t xml:space="preserve">Code Corps (voir annexe)</t>
@@ -478,7 +475,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -726,13 +723,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N1048576"/>
+  <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="J25" activeCellId="0" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="13.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.42"/>
@@ -743,6 +740,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -759,7 +757,6 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E2" s="3" t="str">
@@ -1054,7 +1051,6 @@
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
       <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
     </row>
     <row r="24" customFormat="false" ht="52.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="14" t="s">
@@ -1087,14 +1083,10 @@
       <c r="J24" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="K24" s="15" t="s">
+      <c r="K24" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="L24" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
+      <c r="L24" s="17"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="18" t="str">
@@ -1107,15 +1099,14 @@
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="21" t="str">
-        <f aca="false">IF(AND(B25="",C25="",D25="",E25="",G25="",I25="",J25=""),"",(IF(OR(B25="",C25="",D25="",E25="",G25="",I25="",J25=""),"Donnée manquante",((E25*60+F25)/(G25*60+H25)))))</f>
-        <v/>
-      </c>
-      <c r="L25" s="22" t="str">
-        <f aca="false">IF(OR(K25="Donnée manquante",K25=""),"",$D$64-SUM($K$25:K25,$C$49))</f>
+      <c r="H25" s="20"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="21" t="str">
+        <f aca="false">IF(AND(B25="",C25="",D25="",E25="",G25="",H25="",I25=""),"",(IF(OR(B25="",C25="",D25="",E25="",G25="",H25="",I25=""),"Donnée manquante",((E25*60+F25)/(G25*60+#REF!)))))</f>
+        <v/>
+      </c>
+      <c r="K25" s="22" t="str">
+        <f aca="false">IF(OR(J25="Donnée manquante",J25=""),"",$D$64-SUM($J$25:J25,$C$49))</f>
         <v/>
       </c>
     </row>
@@ -1130,15 +1121,14 @@
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="21" t="str">
-        <f aca="false">IF(AND(B26="",C26="",D26="",E26="",G26="",I26="",J26=""),"",(IF(OR(B26="",C26="",D26="",E26="",G26="",I26="",J26=""),"Donnée manquante",((E26*60+F26)/(G26*60+H26)))))</f>
-        <v/>
-      </c>
-      <c r="L26" s="22" t="str">
-        <f aca="false">IF(OR(K26="Donnée manquante",K26=""),"",$D$64-SUM($K$25:K26,$C$49))</f>
+      <c r="H26" s="20"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="21" t="str">
+        <f aca="false">IF(AND(B26="",C26="",D26="",E26="",G26="",H26="",I26=""),"",(IF(OR(B26="",C26="",D26="",E26="",G26="",H26="",I26=""),"Donnée manquante",((E26*60+F26)/(G26*60+#REF!)))))</f>
+        <v/>
+      </c>
+      <c r="K26" s="22" t="str">
+        <f aca="false">IF(OR(J26="Donnée manquante",J26=""),"",$D$64-SUM($J$25:J26,$C$49))</f>
         <v/>
       </c>
     </row>
@@ -1153,15 +1143,14 @@
       <c r="E27" s="19"/>
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="21" t="str">
-        <f aca="false">IF(AND(B27="",C27="",D27="",E27="",G27="",I27="",J27=""),"",(IF(OR(B27="",C27="",D27="",E27="",G27="",I27="",J27=""),"Donnée manquante",((E27*60+F27)/(G27*60+H27)))))</f>
-        <v/>
-      </c>
-      <c r="L27" s="22" t="str">
-        <f aca="false">IF(OR(K27="Donnée manquante",K27=""),"",$D$64-SUM($K$25:K27,$C$49))</f>
+      <c r="H27" s="20"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="21" t="str">
+        <f aca="false">IF(AND(B27="",C27="",D27="",E27="",G27="",H27="",I27=""),"",(IF(OR(B27="",C27="",D27="",E27="",G27="",H27="",I27=""),"Donnée manquante",((E27*60+F27)/(G27*60+#REF!)))))</f>
+        <v/>
+      </c>
+      <c r="K27" s="22" t="str">
+        <f aca="false">IF(OR(J27="Donnée manquante",J27=""),"",$D$64-SUM($J$25:J27,$C$49))</f>
         <v/>
       </c>
     </row>
@@ -1176,15 +1165,14 @@
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="21" t="str">
-        <f aca="false">IF(AND(B28="",C28="",D28="",E28="",G28="",I28="",J28=""),"",(IF(OR(B28="",C28="",D28="",E28="",G28="",I28="",J28=""),"Donnée manquante",((E28*60+F28)/(G28*60+H28)))))</f>
-        <v/>
-      </c>
-      <c r="L28" s="22" t="str">
-        <f aca="false">IF(OR(K28="Donnée manquante",K28=""),"",$D$64-SUM($K$25:K28,$C$49))</f>
+      <c r="H28" s="20"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="21" t="str">
+        <f aca="false">IF(AND(B28="",C28="",D28="",E28="",G28="",H28="",I28=""),"",(IF(OR(B28="",C28="",D28="",E28="",G28="",H28="",I28=""),"Donnée manquante",((E28*60+F28)/(G28*60+#REF!)))))</f>
+        <v/>
+      </c>
+      <c r="K28" s="22" t="str">
+        <f aca="false">IF(OR(J28="Donnée manquante",J28=""),"",$D$64-SUM($J$25:J28,$C$49))</f>
         <v/>
       </c>
     </row>
@@ -1199,15 +1187,14 @@
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="21" t="str">
-        <f aca="false">IF(AND(B29="",C29="",D29="",E29="",G29="",I29="",J29=""),"",(IF(OR(B29="",C29="",D29="",E29="",G29="",I29="",J29=""),"Donnée manquante",((E29*60+F29)/(G29*60+H29)))))</f>
-        <v/>
-      </c>
-      <c r="L29" s="22" t="str">
-        <f aca="false">IF(OR(K29="Donnée manquante",K29=""),"",$D$64-SUM($K$25:K29,$C$49))</f>
+      <c r="H29" s="20"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="21" t="str">
+        <f aca="false">IF(AND(B29="",C29="",D29="",E29="",G29="",H29="",I29=""),"",(IF(OR(B29="",C29="",D29="",E29="",G29="",H29="",I29=""),"Donnée manquante",((E29*60+F29)/(G29*60+#REF!)))))</f>
+        <v/>
+      </c>
+      <c r="K29" s="22" t="str">
+        <f aca="false">IF(OR(J29="Donnée manquante",J29=""),"",$D$64-SUM($J$25:J29,$C$49))</f>
         <v/>
       </c>
     </row>
@@ -1222,15 +1209,14 @@
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="21" t="str">
-        <f aca="false">IF(AND(B30="",C30="",D30="",E30="",G30="",I30="",J30=""),"",(IF(OR(B30="",C30="",D30="",E30="",G30="",I30="",J30=""),"Donnée manquante",((E30*60+F30)/(G30*60+H30)))))</f>
-        <v/>
-      </c>
-      <c r="L30" s="22" t="str">
-        <f aca="false">IF(OR(K30="Donnée manquante",K30=""),"",$D$64-SUM($K$25:K30,$C$49))</f>
+      <c r="H30" s="20"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="21" t="str">
+        <f aca="false">IF(AND(B30="",C30="",D30="",E30="",G30="",H30="",I30=""),"",(IF(OR(B30="",C30="",D30="",E30="",G30="",H30="",I30=""),"Donnée manquante",((E30*60+F30)/(G30*60+#REF!)))))</f>
+        <v/>
+      </c>
+      <c r="K30" s="22" t="str">
+        <f aca="false">IF(OR(J30="Donnée manquante",J30=""),"",$D$64-SUM($J$25:J30,$C$49))</f>
         <v/>
       </c>
     </row>
@@ -1245,15 +1231,14 @@
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="21" t="str">
-        <f aca="false">IF(AND(B31="",C31="",D31="",E31="",G31="",I31="",J31=""),"",(IF(OR(B31="",C31="",D31="",E31="",G31="",I31="",J31=""),"Donnée manquante",((E31*60+F31)/(G31*60+H31)))))</f>
-        <v/>
-      </c>
-      <c r="L31" s="22" t="str">
-        <f aca="false">IF(OR(K31="Donnée manquante",K31=""),"",$D$64-SUM($K$25:K31,$C$49))</f>
+      <c r="H31" s="20"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="21" t="str">
+        <f aca="false">IF(AND(B31="",C31="",D31="",E31="",G31="",H31="",I31=""),"",(IF(OR(B31="",C31="",D31="",E31="",G31="",H31="",I31=""),"Donnée manquante",((E31*60+F31)/(G31*60+#REF!)))))</f>
+        <v/>
+      </c>
+      <c r="K31" s="22" t="str">
+        <f aca="false">IF(OR(J31="Donnée manquante",J31=""),"",$D$64-SUM($J$25:J31,$C$49))</f>
         <v/>
       </c>
     </row>
@@ -1268,15 +1253,14 @@
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
       <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="21" t="str">
-        <f aca="false">IF(AND(B32="",C32="",D32="",E32="",G32="",I32="",J32=""),"",(IF(OR(B32="",C32="",D32="",E32="",G32="",I32="",J32=""),"Donnée manquante",((E32*60+F32)/(G32*60+H32)))))</f>
-        <v/>
-      </c>
-      <c r="L32" s="22" t="str">
-        <f aca="false">IF(OR(K32="Donnée manquante",K32=""),"",$D$64-SUM($K$25:K32,$C$49))</f>
+      <c r="H32" s="20"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="21" t="str">
+        <f aca="false">IF(AND(B32="",C32="",D32="",E32="",G32="",H32="",I32=""),"",(IF(OR(B32="",C32="",D32="",E32="",G32="",H32="",I32=""),"Donnée manquante",((E32*60+F32)/(G32*60+#REF!)))))</f>
+        <v/>
+      </c>
+      <c r="K32" s="22" t="str">
+        <f aca="false">IF(OR(J32="Donnée manquante",J32=""),"",$D$64-SUM($J$25:J32,$C$49))</f>
         <v/>
       </c>
     </row>
@@ -1291,15 +1275,14 @@
       <c r="E33" s="19"/>
       <c r="F33" s="19"/>
       <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="21" t="str">
-        <f aca="false">IF(AND(B33="",C33="",D33="",E33="",G33="",I33="",J33=""),"",(IF(OR(B33="",C33="",D33="",E33="",G33="",I33="",J33=""),"Donnée manquante",((E33*60+F33)/(G33*60+H33)))))</f>
-        <v/>
-      </c>
-      <c r="L33" s="22" t="str">
-        <f aca="false">IF(OR(K33="Donnée manquante",K33=""),"",$D$64-SUM($K$25:K33,$C$49))</f>
+      <c r="H33" s="20"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="21" t="str">
+        <f aca="false">IF(AND(B33="",C33="",D33="",E33="",G33="",H33="",I33=""),"",(IF(OR(B33="",C33="",D33="",E33="",G33="",H33="",I33=""),"Donnée manquante",((E33*60+F33)/(G33*60+#REF!)))))</f>
+        <v/>
+      </c>
+      <c r="K33" s="22" t="str">
+        <f aca="false">IF(OR(J33="Donnée manquante",J33=""),"",$D$64-SUM($J$25:J33,$C$49))</f>
         <v/>
       </c>
     </row>
@@ -1314,15 +1297,14 @@
       <c r="E34" s="19"/>
       <c r="F34" s="19"/>
       <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="21" t="str">
-        <f aca="false">IF(AND(B34="",C34="",D34="",E34="",G34="",I34="",J34=""),"",(IF(OR(B34="",C34="",D34="",E34="",G34="",I34="",J34=""),"Donnée manquante",((E34*60+F34)/(G34*60+H34)))))</f>
-        <v/>
-      </c>
-      <c r="L34" s="22" t="str">
-        <f aca="false">IF(OR(K34="Donnée manquante",K34=""),"",$D$64-SUM($K$25:K34,$C$49))</f>
+      <c r="H34" s="20"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="21" t="str">
+        <f aca="false">IF(AND(B34="",C34="",D34="",E34="",G34="",H34="",I34=""),"",(IF(OR(B34="",C34="",D34="",E34="",G34="",H34="",I34=""),"Donnée manquante",((E34*60+F34)/(G34*60+#REF!)))))</f>
+        <v/>
+      </c>
+      <c r="K34" s="22" t="str">
+        <f aca="false">IF(OR(J34="Donnée manquante",J34=""),"",$D$64-SUM($J$25:J34,$C$49))</f>
         <v/>
       </c>
     </row>
@@ -1337,15 +1319,14 @@
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
       <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="21" t="str">
-        <f aca="false">IF(AND(B35="",C35="",D35="",E35="",G35="",I35="",J35=""),"",(IF(OR(B35="",C35="",D35="",E35="",G35="",I35="",J35=""),"Donnée manquante",((E35*60+F35)/(G35*60+H35)))))</f>
-        <v/>
-      </c>
-      <c r="L35" s="22" t="str">
-        <f aca="false">IF(OR(K35="Donnée manquante",K35=""),"",$D$64-SUM($K$25:K35,$C$49))</f>
+      <c r="H35" s="20"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="21" t="str">
+        <f aca="false">IF(AND(B35="",C35="",D35="",E35="",G35="",H35="",I35=""),"",(IF(OR(B35="",C35="",D35="",E35="",G35="",H35="",I35=""),"Donnée manquante",((E35*60+F35)/(G35*60+#REF!)))))</f>
+        <v/>
+      </c>
+      <c r="K35" s="22" t="str">
+        <f aca="false">IF(OR(J35="Donnée manquante",J35=""),"",$D$64-SUM($J$25:J35,$C$49))</f>
         <v/>
       </c>
     </row>
@@ -1360,15 +1341,14 @@
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="21" t="str">
-        <f aca="false">IF(AND(B36="",C36="",D36="",E36="",G36="",I36="",J36=""),"",(IF(OR(B36="",C36="",D36="",E36="",G36="",I36="",J36=""),"Donnée manquante",((E36*60+F36)/(G36*60+H36)))))</f>
-        <v/>
-      </c>
-      <c r="L36" s="22" t="str">
-        <f aca="false">IF(OR(K36="Donnée manquante",K36=""),"",$D$64-SUM($K$25:K36,$C$49))</f>
+      <c r="H36" s="20"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="21" t="str">
+        <f aca="false">IF(AND(B36="",C36="",D36="",E36="",G36="",H36="",I36=""),"",(IF(OR(B36="",C36="",D36="",E36="",G36="",H36="",I36=""),"Donnée manquante",((E36*60+F36)/(G36*60+#REF!)))))</f>
+        <v/>
+      </c>
+      <c r="K36" s="22" t="str">
+        <f aca="false">IF(OR(J36="Donnée manquante",J36=""),"",$D$64-SUM($J$25:J36,$C$49))</f>
         <v/>
       </c>
     </row>
@@ -1383,15 +1363,14 @@
       <c r="E37" s="19"/>
       <c r="F37" s="19"/>
       <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="21" t="str">
-        <f aca="false">IF(AND(B37="",C37="",D37="",E37="",G37="",I37="",J37=""),"",(IF(OR(B37="",C37="",D37="",E37="",G37="",I37="",J37=""),"Donnée manquante",((E37*60+F37)/(G37*60+H37)))))</f>
-        <v/>
-      </c>
-      <c r="L37" s="22" t="str">
-        <f aca="false">IF(OR(K37="Donnée manquante",K37=""),"",$D$64-SUM($K$25:K37,$C$49))</f>
+      <c r="H37" s="20"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="21" t="str">
+        <f aca="false">IF(AND(B37="",C37="",D37="",E37="",G37="",H37="",I37=""),"",(IF(OR(B37="",C37="",D37="",E37="",G37="",H37="",I37=""),"Donnée manquante",((E37*60+F37)/(G37*60+#REF!)))))</f>
+        <v/>
+      </c>
+      <c r="K37" s="22" t="str">
+        <f aca="false">IF(OR(J37="Donnée manquante",J37=""),"",$D$64-SUM($J$25:J37,$C$49))</f>
         <v/>
       </c>
     </row>
@@ -1406,15 +1385,14 @@
       <c r="E38" s="19"/>
       <c r="F38" s="19"/>
       <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="21" t="str">
-        <f aca="false">IF(AND(B38="",C38="",D38="",E38="",G38="",I38="",J38=""),"",(IF(OR(B38="",C38="",D38="",E38="",G38="",I38="",J38=""),"Donnée manquante",((E38*60+F38)/(G38*60+H38)))))</f>
-        <v/>
-      </c>
-      <c r="L38" s="22" t="str">
-        <f aca="false">IF(OR(K38="Donnée manquante",K38=""),"",$D$64-SUM($K$25:K38,$C$49))</f>
+      <c r="H38" s="20"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="21" t="str">
+        <f aca="false">IF(AND(B38="",C38="",D38="",E38="",G38="",H38="",I38=""),"",(IF(OR(B38="",C38="",D38="",E38="",G38="",H38="",I38=""),"Donnée manquante",((E38*60+F38)/(G38*60+#REF!)))))</f>
+        <v/>
+      </c>
+      <c r="K38" s="22" t="str">
+        <f aca="false">IF(OR(J38="Donnée manquante",J38=""),"",$D$64-SUM($J$25:J38,$C$49))</f>
         <v/>
       </c>
     </row>
@@ -1429,15 +1407,14 @@
       <c r="E39" s="19"/>
       <c r="F39" s="19"/>
       <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="21" t="str">
-        <f aca="false">IF(AND(B39="",C39="",D39="",E39="",G39="",I39="",J39=""),"",(IF(OR(B39="",C39="",D39="",E39="",G39="",I39="",J39=""),"Donnée manquante",((E39*60+F39)/(G39*60+H39)))))</f>
-        <v/>
-      </c>
-      <c r="L39" s="22" t="str">
-        <f aca="false">IF(OR(K39="Donnée manquante",K39=""),"",$D$64-SUM($K$25:K39,$C$49))</f>
+      <c r="H39" s="20"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="21" t="str">
+        <f aca="false">IF(AND(B39="",C39="",D39="",E39="",G39="",H39="",I39=""),"",(IF(OR(B39="",C39="",D39="",E39="",G39="",H39="",I39=""),"Donnée manquante",((E39*60+F39)/(G39*60+#REF!)))))</f>
+        <v/>
+      </c>
+      <c r="K39" s="22" t="str">
+        <f aca="false">IF(OR(J39="Donnée manquante",J39=""),"",$D$64-SUM($J$25:J39,$C$49))</f>
         <v/>
       </c>
     </row>
@@ -1452,15 +1429,14 @@
       <c r="E40" s="19"/>
       <c r="F40" s="19"/>
       <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="21" t="str">
-        <f aca="false">IF(AND(B40="",C40="",D40="",E40="",G40="",I40="",J40=""),"",(IF(OR(B40="",C40="",D40="",E40="",G40="",I40="",J40=""),"Donnée manquante",((E40*60+F40)/(G40*60+H40)))))</f>
-        <v/>
-      </c>
-      <c r="L40" s="22" t="str">
-        <f aca="false">IF(OR(K40="Donnée manquante",K40=""),"",$D$64-SUM($K$25:K40,$C$49))</f>
+      <c r="H40" s="20"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="21" t="str">
+        <f aca="false">IF(AND(B40="",C40="",D40="",E40="",G40="",H40="",I40=""),"",(IF(OR(B40="",C40="",D40="",E40="",G40="",H40="",I40=""),"Donnée manquante",((E40*60+F40)/(G40*60+#REF!)))))</f>
+        <v/>
+      </c>
+      <c r="K40" s="22" t="str">
+        <f aca="false">IF(OR(J40="Donnée manquante",J40=""),"",$D$64-SUM($J$25:J40,$C$49))</f>
         <v/>
       </c>
     </row>
@@ -1475,15 +1451,14 @@
       <c r="E41" s="19"/>
       <c r="F41" s="19"/>
       <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="21" t="str">
-        <f aca="false">IF(AND(B41="",C41="",D41="",E41="",G41="",I41="",J41=""),"",(IF(OR(B41="",C41="",D41="",E41="",G41="",I41="",J41=""),"Donnée manquante",((E41*60+F41)/(G41*60+H41)))))</f>
-        <v/>
-      </c>
-      <c r="L41" s="22" t="str">
-        <f aca="false">IF(OR(K41="Donnée manquante",K41=""),"",$D$64-SUM($K$25:K41,$C$49))</f>
+      <c r="H41" s="20"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="21" t="str">
+        <f aca="false">IF(AND(B41="",C41="",D41="",E41="",G41="",H41="",I41=""),"",(IF(OR(B41="",C41="",D41="",E41="",G41="",H41="",I41=""),"Donnée manquante",((E41*60+F41)/(G41*60+#REF!)))))</f>
+        <v/>
+      </c>
+      <c r="K41" s="22" t="str">
+        <f aca="false">IF(OR(J41="Donnée manquante",J41=""),"",$D$64-SUM($J$25:J41,$C$49))</f>
         <v/>
       </c>
     </row>
@@ -1498,15 +1473,14 @@
       <c r="E42" s="19"/>
       <c r="F42" s="19"/>
       <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="21" t="str">
-        <f aca="false">IF(AND(B42="",C42="",D42="",E42="",G42="",I42="",J42=""),"",(IF(OR(B42="",C42="",D42="",E42="",G42="",I42="",J42=""),"Donnée manquante",((E42*60+F42)/(G42*60+H42)))))</f>
-        <v/>
-      </c>
-      <c r="L42" s="22" t="str">
-        <f aca="false">IF(OR(K42="Donnée manquante",K42=""),"",$D$64-SUM($K$25:K42,$C$49))</f>
+      <c r="H42" s="20"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="21" t="str">
+        <f aca="false">IF(AND(B42="",C42="",D42="",E42="",G42="",H42="",I42=""),"",(IF(OR(B42="",C42="",D42="",E42="",G42="",H42="",I42=""),"Donnée manquante",((E42*60+F42)/(G42*60+#REF!)))))</f>
+        <v/>
+      </c>
+      <c r="K42" s="22" t="str">
+        <f aca="false">IF(OR(J42="Donnée manquante",J42=""),"",$D$64-SUM($J$25:J42,$C$49))</f>
         <v/>
       </c>
     </row>
@@ -1521,15 +1495,14 @@
       <c r="E43" s="19"/>
       <c r="F43" s="19"/>
       <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="21" t="str">
-        <f aca="false">IF(AND(B43="",C43="",D43="",E43="",G43="",I43="",J43=""),"",(IF(OR(B43="",C43="",D43="",E43="",G43="",I43="",J43=""),"Donnée manquante",((E43*60+F43)/(G43*60+H43)))))</f>
-        <v/>
-      </c>
-      <c r="L43" s="22" t="str">
-        <f aca="false">IF(OR(K43="Donnée manquante",K43=""),"",$D$64-SUM($K$25:K43,$C$49))</f>
+      <c r="H43" s="20"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="21" t="str">
+        <f aca="false">IF(AND(B43="",C43="",D43="",E43="",G43="",H43="",I43=""),"",(IF(OR(B43="",C43="",D43="",E43="",G43="",H43="",I43=""),"Donnée manquante",((E43*60+F43)/(G43*60+#REF!)))))</f>
+        <v/>
+      </c>
+      <c r="K43" s="22" t="str">
+        <f aca="false">IF(OR(J43="Donnée manquante",J43=""),"",$D$64-SUM($J$25:J43,$C$49))</f>
         <v/>
       </c>
     </row>
@@ -1544,21 +1517,20 @@
       <c r="E44" s="24"/>
       <c r="F44" s="24"/>
       <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="26" t="str">
-        <f aca="false">IF(AND(B44="",C44="",D44="",E44="",G44="",I44="",J44=""),"",(IF(OR(B44="",C44="",D44="",E44="",G44="",I44="",J44=""),"Donnée manquante",((E44*60+F44)/(G44*60+H44)))))</f>
-        <v/>
-      </c>
-      <c r="L44" s="27" t="str">
-        <f aca="false">IF(OR(K44="Donnée manquante",K44=""),"",$D$64-SUM($K$25:K44,$C$49))</f>
+      <c r="H44" s="25"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="26" t="str">
+        <f aca="false">IF(AND(B44="",C44="",D44="",E44="",G44="",H44="",I44=""),"",(IF(OR(B44="",C44="",D44="",E44="",G44="",H44="",I44=""),"Donnée manquante",((E44*60+F44)/(G44*60+#REF!)))))</f>
+        <v/>
+      </c>
+      <c r="K44" s="27" t="str">
+        <f aca="false">IF(OR(J44="Donnée manquante",J44=""),"",$D$64-SUM($J$25:J44,$C$49))</f>
         <v/>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D46" s="28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E46" s="28"/>
       <c r="F46" s="28"/>
@@ -1569,7 +1541,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B47" s="29"/>
       <c r="C47" s="29"/>
@@ -1583,13 +1555,13 @@
     </row>
     <row r="48" customFormat="false" ht="52.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="C48" s="16" t="s">
         <v>31</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>32</v>
       </c>
       <c r="D48" s="28"/>
       <c r="E48" s="28"/>
@@ -1612,7 +1584,7 @@
     </row>
     <row r="51" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B51" s="29"/>
       <c r="C51" s="29"/>
@@ -1620,7 +1592,7 @@
       <c r="E51" s="29"/>
       <c r="F51" s="29"/>
       <c r="G51" s="32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H51" s="32"/>
       <c r="I51" s="32"/>
@@ -1629,12 +1601,12 @@
     </row>
     <row r="52" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B52" s="33"/>
       <c r="C52" s="33"/>
       <c r="D52" s="33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E52" s="33"/>
       <c r="F52" s="33"/>
@@ -1646,18 +1618,18 @@
     </row>
     <row r="53" customFormat="false" ht="47.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B53" s="34"/>
       <c r="C53" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D53" s="34" t="s">
         <v>38</v>
-      </c>
-      <c r="D53" s="34" t="s">
-        <v>39</v>
       </c>
       <c r="E53" s="34"/>
       <c r="F53" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G53" s="32"/>
       <c r="H53" s="32"/>
@@ -1719,7 +1691,7 @@
     </row>
     <row r="58" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B58" s="29"/>
       <c r="C58" s="29"/>
@@ -1729,7 +1701,7 @@
     </row>
     <row r="59" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B59" s="40"/>
       <c r="C59" s="41" t="n">
@@ -1737,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="D59" s="40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E59" s="40"/>
       <c r="F59" s="41" t="n">
@@ -1747,7 +1719,7 @@
     </row>
     <row r="61" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B61" s="42"/>
       <c r="C61" s="42"/>
@@ -1762,42 +1734,42 @@
         <v>16</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C62" s="15"/>
       <c r="D62" s="15"/>
       <c r="E62" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F62" s="15"/>
       <c r="G62" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H62" s="16"/>
     </row>
     <row r="63" customFormat="false" ht="47.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="43"/>
       <c r="B63" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D63" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C63" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D63" s="15" t="s">
+      <c r="E63" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E63" s="15" t="s">
+      <c r="F63" s="15" t="s">
         <v>50</v>
-      </c>
-      <c r="F63" s="15" t="s">
-        <v>51</v>
       </c>
       <c r="G63" s="16"/>
       <c r="H63" s="16"/>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B64" s="45" t="n">
         <v>0.567</v>
@@ -1811,7 +1783,7 @@
         <v>0.567</v>
       </c>
       <c r="E64" s="45" t="n">
-        <f aca="false">SUM(K25:K44)</f>
+        <f aca="false">SUM(J25:J44)</f>
         <v>0</v>
       </c>
       <c r="F64" s="45" t="n">
@@ -1839,23 +1811,13 @@
     <row r="67" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="I67" s="1"/>
     </row>
-    <row r="1048567" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A1:K1"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="A4:G19"/>
     <mergeCell ref="E21:G21"/>
-    <mergeCell ref="A23:L23"/>
+    <mergeCell ref="A23:K23"/>
     <mergeCell ref="D46:J48"/>
     <mergeCell ref="A47:C47"/>
     <mergeCell ref="A51:F51"/>
@@ -1883,17 +1845,13 @@
     <mergeCell ref="G64:H64"/>
     <mergeCell ref="I64:K64"/>
   </mergeCells>
-  <dataValidations count="12">
-    <dataValidation allowBlank="false" error="Un code corps comprend trois chiffres." errorStyle="stop" errorTitle="Mauvais code corps" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I25:I44" type="custom">
-      <formula1>ISTEXT(_xlfn.ORG.LIBREOFFICE.REGEX(I25,"[0-9]{3}"))</formula1>
+  <dataValidations count="11">
+    <dataValidation allowBlank="false" error="Un code corps comprend trois chiffres." errorStyle="stop" errorTitle="Mauvais code corps" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H25:H44" type="custom">
+      <formula1>ISTEXT(_xlfn.ORG.LIBREOFFICE.REGEX(H25,"[0-9]{3}"))</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="false" error="Insérez entre 0 et 59 minutes." errorStyle="stop" errorTitle="Minute !" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F25:F44" type="custom">
       <formula1>AND(F25&gt;=0,F25&lt;60)</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" error="Insérez des minutes, entre 0 et 59." errorStyle="stop" errorTitle="Minute !" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H25:H44" type="custom">
-      <formula1>AND(H25&gt;=0,H25&lt;60)</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="false" error="L'ORS hebdomadaire la plus petite est 15 heures pour les enseignant-es.&#10;Pour les autres agent-es, l'ORS est de 1607 heures, temps partiel ou pas." errorStyle="stop" errorTitle="ORS" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G25:G44" type="custom">
@@ -1928,8 +1886,8 @@
       <formula1>ISTEXT(_xlfn.ORG.LIBREOFFICE.REGEX(A54,"^[A-Z].* \(.*\)$"))</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Exemple de RNE : 1234567G" errorStyle="stop" errorTitle="Saisissez un RNE" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J25:J44" type="custom">
-      <formula1>ISTEXT(_xlfn.ORG.LIBREOFFICE.REGEX(J25,"^[0-9]{7}[A-Z]$"))</formula1>
+    <dataValidation allowBlank="false" error="Exemple de RNE : 1234567G" errorStyle="stop" errorTitle="Saisissez un RNE" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I25:I44" type="custom">
+      <formula1>ISTEXT(_xlfn.ORG.LIBREOFFICE.REGEX(I25,"^[0-9]{7}[A-Z]$"))</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>

--- a/template2021-2022.xlsx
+++ b/template2021-2022.xlsx
@@ -49,7 +49,7 @@
     <t xml:space="preserve">AESH</t>
   </si>
   <si>
-    <t xml:space="preserve">1807 ou 35</t>
+    <t xml:space="preserve">1607 ou 35</t>
   </si>
   <si>
     <t xml:space="preserve">Agrégé-e</t>
@@ -726,10 +726,10 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J25" activeCellId="0" sqref="J25"/>
+      <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.42"/>
@@ -1102,7 +1102,7 @@
       <c r="H25" s="20"/>
       <c r="I25" s="19"/>
       <c r="J25" s="21" t="str">
-        <f aca="false">IF(AND(B25="",C25="",D25="",E25="",G25="",H25="",I25=""),"",(IF(OR(B25="",C25="",D25="",E25="",G25="",H25="",I25=""),"Donnée manquante",((E25*60+F25)/(G25*60+#REF!)))))</f>
+        <f aca="false">IF(AND(B25="",C25="",D25="",E25="",G25="",H25="",I25=""),"",(IF(OR(B25="",C25="",D25="",E25="",G25="",H25="",I25=""),"Donnée manquante",((E25*60+F25)/(G25*60)))))</f>
         <v/>
       </c>
       <c r="K25" s="22" t="str">
@@ -1124,7 +1124,7 @@
       <c r="H26" s="20"/>
       <c r="I26" s="19"/>
       <c r="J26" s="21" t="str">
-        <f aca="false">IF(AND(B26="",C26="",D26="",E26="",G26="",H26="",I26=""),"",(IF(OR(B26="",C26="",D26="",E26="",G26="",H26="",I26=""),"Donnée manquante",((E26*60+F26)/(G26*60+#REF!)))))</f>
+        <f aca="false">IF(AND(B26="",C26="",D26="",E26="",G26="",H26="",I26=""),"",(IF(OR(B26="",C26="",D26="",E26="",G26="",H26="",I26=""),"Donnée manquante",((E26*60+F26)/(G26*60)))))</f>
         <v/>
       </c>
       <c r="K26" s="22" t="str">
@@ -1146,7 +1146,7 @@
       <c r="H27" s="20"/>
       <c r="I27" s="19"/>
       <c r="J27" s="21" t="str">
-        <f aca="false">IF(AND(B27="",C27="",D27="",E27="",G27="",H27="",I27=""),"",(IF(OR(B27="",C27="",D27="",E27="",G27="",H27="",I27=""),"Donnée manquante",((E27*60+F27)/(G27*60+#REF!)))))</f>
+        <f aca="false">IF(AND(B27="",C27="",D27="",E27="",G27="",H27="",I27=""),"",(IF(OR(B27="",C27="",D27="",E27="",G27="",H27="",I27=""),"Donnée manquante",((E27*60+F27)/(G27*60)))))</f>
         <v/>
       </c>
       <c r="K27" s="22" t="str">
@@ -1168,7 +1168,7 @@
       <c r="H28" s="20"/>
       <c r="I28" s="19"/>
       <c r="J28" s="21" t="str">
-        <f aca="false">IF(AND(B28="",C28="",D28="",E28="",G28="",H28="",I28=""),"",(IF(OR(B28="",C28="",D28="",E28="",G28="",H28="",I28=""),"Donnée manquante",((E28*60+F28)/(G28*60+#REF!)))))</f>
+        <f aca="false">IF(AND(B28="",C28="",D28="",E28="",G28="",H28="",I28=""),"",(IF(OR(B28="",C28="",D28="",E28="",G28="",H28="",I28=""),"Donnée manquante",((E28*60+F28)/(G28*60)))))</f>
         <v/>
       </c>
       <c r="K28" s="22" t="str">
@@ -1190,7 +1190,7 @@
       <c r="H29" s="20"/>
       <c r="I29" s="19"/>
       <c r="J29" s="21" t="str">
-        <f aca="false">IF(AND(B29="",C29="",D29="",E29="",G29="",H29="",I29=""),"",(IF(OR(B29="",C29="",D29="",E29="",G29="",H29="",I29=""),"Donnée manquante",((E29*60+F29)/(G29*60+#REF!)))))</f>
+        <f aca="false">IF(AND(B29="",C29="",D29="",E29="",G29="",H29="",I29=""),"",(IF(OR(B29="",C29="",D29="",E29="",G29="",H29="",I29=""),"Donnée manquante",((E29*60+F29)/(G29*60)))))</f>
         <v/>
       </c>
       <c r="K29" s="22" t="str">
@@ -1212,7 +1212,7 @@
       <c r="H30" s="20"/>
       <c r="I30" s="19"/>
       <c r="J30" s="21" t="str">
-        <f aca="false">IF(AND(B30="",C30="",D30="",E30="",G30="",H30="",I30=""),"",(IF(OR(B30="",C30="",D30="",E30="",G30="",H30="",I30=""),"Donnée manquante",((E30*60+F30)/(G30*60+#REF!)))))</f>
+        <f aca="false">IF(AND(B30="",C30="",D30="",E30="",G30="",H30="",I30=""),"",(IF(OR(B30="",C30="",D30="",E30="",G30="",H30="",I30=""),"Donnée manquante",((E30*60+F30)/(G30*60)))))</f>
         <v/>
       </c>
       <c r="K30" s="22" t="str">
@@ -1234,7 +1234,7 @@
       <c r="H31" s="20"/>
       <c r="I31" s="19"/>
       <c r="J31" s="21" t="str">
-        <f aca="false">IF(AND(B31="",C31="",D31="",E31="",G31="",H31="",I31=""),"",(IF(OR(B31="",C31="",D31="",E31="",G31="",H31="",I31=""),"Donnée manquante",((E31*60+F31)/(G31*60+#REF!)))))</f>
+        <f aca="false">IF(AND(B31="",C31="",D31="",E31="",G31="",H31="",I31=""),"",(IF(OR(B31="",C31="",D31="",E31="",G31="",H31="",I31=""),"Donnée manquante",((E31*60+F31)/(G31*60)))))</f>
         <v/>
       </c>
       <c r="K31" s="22" t="str">
@@ -1256,7 +1256,7 @@
       <c r="H32" s="20"/>
       <c r="I32" s="19"/>
       <c r="J32" s="21" t="str">
-        <f aca="false">IF(AND(B32="",C32="",D32="",E32="",G32="",H32="",I32=""),"",(IF(OR(B32="",C32="",D32="",E32="",G32="",H32="",I32=""),"Donnée manquante",((E32*60+F32)/(G32*60+#REF!)))))</f>
+        <f aca="false">IF(AND(B32="",C32="",D32="",E32="",G32="",H32="",I32=""),"",(IF(OR(B32="",C32="",D32="",E32="",G32="",H32="",I32=""),"Donnée manquante",((E32*60+F32)/(G32*60)))))</f>
         <v/>
       </c>
       <c r="K32" s="22" t="str">
@@ -1278,7 +1278,7 @@
       <c r="H33" s="20"/>
       <c r="I33" s="19"/>
       <c r="J33" s="21" t="str">
-        <f aca="false">IF(AND(B33="",C33="",D33="",E33="",G33="",H33="",I33=""),"",(IF(OR(B33="",C33="",D33="",E33="",G33="",H33="",I33=""),"Donnée manquante",((E33*60+F33)/(G33*60+#REF!)))))</f>
+        <f aca="false">IF(AND(B33="",C33="",D33="",E33="",G33="",H33="",I33=""),"",(IF(OR(B33="",C33="",D33="",E33="",G33="",H33="",I33=""),"Donnée manquante",((E33*60+F33)/(G33*60)))))</f>
         <v/>
       </c>
       <c r="K33" s="22" t="str">
@@ -1300,7 +1300,7 @@
       <c r="H34" s="20"/>
       <c r="I34" s="19"/>
       <c r="J34" s="21" t="str">
-        <f aca="false">IF(AND(B34="",C34="",D34="",E34="",G34="",H34="",I34=""),"",(IF(OR(B34="",C34="",D34="",E34="",G34="",H34="",I34=""),"Donnée manquante",((E34*60+F34)/(G34*60+#REF!)))))</f>
+        <f aca="false">IF(AND(B34="",C34="",D34="",E34="",G34="",H34="",I34=""),"",(IF(OR(B34="",C34="",D34="",E34="",G34="",H34="",I34=""),"Donnée manquante",((E34*60+F34)/(G34*60)))))</f>
         <v/>
       </c>
       <c r="K34" s="22" t="str">
@@ -1322,7 +1322,7 @@
       <c r="H35" s="20"/>
       <c r="I35" s="19"/>
       <c r="J35" s="21" t="str">
-        <f aca="false">IF(AND(B35="",C35="",D35="",E35="",G35="",H35="",I35=""),"",(IF(OR(B35="",C35="",D35="",E35="",G35="",H35="",I35=""),"Donnée manquante",((E35*60+F35)/(G35*60+#REF!)))))</f>
+        <f aca="false">IF(AND(B35="",C35="",D35="",E35="",G35="",H35="",I35=""),"",(IF(OR(B35="",C35="",D35="",E35="",G35="",H35="",I35=""),"Donnée manquante",((E35*60+F35)/(G35*60)))))</f>
         <v/>
       </c>
       <c r="K35" s="22" t="str">
@@ -1344,7 +1344,7 @@
       <c r="H36" s="20"/>
       <c r="I36" s="19"/>
       <c r="J36" s="21" t="str">
-        <f aca="false">IF(AND(B36="",C36="",D36="",E36="",G36="",H36="",I36=""),"",(IF(OR(B36="",C36="",D36="",E36="",G36="",H36="",I36=""),"Donnée manquante",((E36*60+F36)/(G36*60+#REF!)))))</f>
+        <f aca="false">IF(AND(B36="",C36="",D36="",E36="",G36="",H36="",I36=""),"",(IF(OR(B36="",C36="",D36="",E36="",G36="",H36="",I36=""),"Donnée manquante",((E36*60+F36)/(G36*60)))))</f>
         <v/>
       </c>
       <c r="K36" s="22" t="str">
@@ -1366,7 +1366,7 @@
       <c r="H37" s="20"/>
       <c r="I37" s="19"/>
       <c r="J37" s="21" t="str">
-        <f aca="false">IF(AND(B37="",C37="",D37="",E37="",G37="",H37="",I37=""),"",(IF(OR(B37="",C37="",D37="",E37="",G37="",H37="",I37=""),"Donnée manquante",((E37*60+F37)/(G37*60+#REF!)))))</f>
+        <f aca="false">IF(AND(B37="",C37="",D37="",E37="",G37="",H37="",I37=""),"",(IF(OR(B37="",C37="",D37="",E37="",G37="",H37="",I37=""),"Donnée manquante",((E37*60+F37)/(G37*60)))))</f>
         <v/>
       </c>
       <c r="K37" s="22" t="str">
@@ -1388,7 +1388,7 @@
       <c r="H38" s="20"/>
       <c r="I38" s="19"/>
       <c r="J38" s="21" t="str">
-        <f aca="false">IF(AND(B38="",C38="",D38="",E38="",G38="",H38="",I38=""),"",(IF(OR(B38="",C38="",D38="",E38="",G38="",H38="",I38=""),"Donnée manquante",((E38*60+F38)/(G38*60+#REF!)))))</f>
+        <f aca="false">IF(AND(B38="",C38="",D38="",E38="",G38="",H38="",I38=""),"",(IF(OR(B38="",C38="",D38="",E38="",G38="",H38="",I38=""),"Donnée manquante",((E38*60+F38)/(G38*60)))))</f>
         <v/>
       </c>
       <c r="K38" s="22" t="str">
@@ -1410,7 +1410,7 @@
       <c r="H39" s="20"/>
       <c r="I39" s="19"/>
       <c r="J39" s="21" t="str">
-        <f aca="false">IF(AND(B39="",C39="",D39="",E39="",G39="",H39="",I39=""),"",(IF(OR(B39="",C39="",D39="",E39="",G39="",H39="",I39=""),"Donnée manquante",((E39*60+F39)/(G39*60+#REF!)))))</f>
+        <f aca="false">IF(AND(B39="",C39="",D39="",E39="",G39="",H39="",I39=""),"",(IF(OR(B39="",C39="",D39="",E39="",G39="",H39="",I39=""),"Donnée manquante",((E39*60+F39)/(G39*60)))))</f>
         <v/>
       </c>
       <c r="K39" s="22" t="str">
@@ -1432,7 +1432,7 @@
       <c r="H40" s="20"/>
       <c r="I40" s="19"/>
       <c r="J40" s="21" t="str">
-        <f aca="false">IF(AND(B40="",C40="",D40="",E40="",G40="",H40="",I40=""),"",(IF(OR(B40="",C40="",D40="",E40="",G40="",H40="",I40=""),"Donnée manquante",((E40*60+F40)/(G40*60+#REF!)))))</f>
+        <f aca="false">IF(AND(B40="",C40="",D40="",E40="",G40="",H40="",I40=""),"",(IF(OR(B40="",C40="",D40="",E40="",G40="",H40="",I40=""),"Donnée manquante",((E40*60+F40)/(G40*60)))))</f>
         <v/>
       </c>
       <c r="K40" s="22" t="str">
@@ -1454,7 +1454,7 @@
       <c r="H41" s="20"/>
       <c r="I41" s="19"/>
       <c r="J41" s="21" t="str">
-        <f aca="false">IF(AND(B41="",C41="",D41="",E41="",G41="",H41="",I41=""),"",(IF(OR(B41="",C41="",D41="",E41="",G41="",H41="",I41=""),"Donnée manquante",((E41*60+F41)/(G41*60+#REF!)))))</f>
+        <f aca="false">IF(AND(B41="",C41="",D41="",E41="",G41="",H41="",I41=""),"",(IF(OR(B41="",C41="",D41="",E41="",G41="",H41="",I41=""),"Donnée manquante",((E41*60+F41)/(G41*60)))))</f>
         <v/>
       </c>
       <c r="K41" s="22" t="str">
@@ -1476,7 +1476,7 @@
       <c r="H42" s="20"/>
       <c r="I42" s="19"/>
       <c r="J42" s="21" t="str">
-        <f aca="false">IF(AND(B42="",C42="",D42="",E42="",G42="",H42="",I42=""),"",(IF(OR(B42="",C42="",D42="",E42="",G42="",H42="",I42=""),"Donnée manquante",((E42*60+F42)/(G42*60+#REF!)))))</f>
+        <f aca="false">IF(AND(B42="",C42="",D42="",E42="",G42="",H42="",I42=""),"",(IF(OR(B42="",C42="",D42="",E42="",G42="",H42="",I42=""),"Donnée manquante",((E42*60+F42)/(G42*60)))))</f>
         <v/>
       </c>
       <c r="K42" s="22" t="str">
@@ -1498,7 +1498,7 @@
       <c r="H43" s="20"/>
       <c r="I43" s="19"/>
       <c r="J43" s="21" t="str">
-        <f aca="false">IF(AND(B43="",C43="",D43="",E43="",G43="",H43="",I43=""),"",(IF(OR(B43="",C43="",D43="",E43="",G43="",H43="",I43=""),"Donnée manquante",((E43*60+F43)/(G43*60+#REF!)))))</f>
+        <f aca="false">IF(AND(B43="",C43="",D43="",E43="",G43="",H43="",I43=""),"",(IF(OR(B43="",C43="",D43="",E43="",G43="",H43="",I43=""),"Donnée manquante",((E43*60+F43)/(G43*60)))))</f>
         <v/>
       </c>
       <c r="K43" s="22" t="str">
@@ -1520,7 +1520,7 @@
       <c r="H44" s="25"/>
       <c r="I44" s="24"/>
       <c r="J44" s="26" t="str">
-        <f aca="false">IF(AND(B44="",C44="",D44="",E44="",G44="",H44="",I44=""),"",(IF(OR(B44="",C44="",D44="",E44="",G44="",H44="",I44=""),"Donnée manquante",((E44*60+F44)/(G44*60+#REF!)))))</f>
+        <f aca="false">IF(AND(B44="",C44="",D44="",E44="",G44="",H44="",I44=""),"",(IF(OR(B44="",C44="",D44="",E44="",G44="",H44="",I44=""),"Donnée manquante",((E44*60+F44)/(G44*60)))))</f>
         <v/>
       </c>
       <c r="K44" s="27" t="str">
@@ -1870,10 +1870,6 @@
       <formula1>AND(NOT(ISTEXT(_xlfn.ORG.LIBREOFFICE.REGEX(C25," $"))),NOT(ISTEXT(_xlfn.ORG.LIBREOFFICE.REGEX(C25,"^ "))),NOT(ISTEXT(_xlfn.ORG.LIBREOFFICE.REGEX(C25,"[ËÊÉÀÈÖ_-\.]" ))))</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="C'est “M.” ou “Mme”. &#10;Pas d'espace dans tous les sens, pas d’abbréviation bizarre." errorStyle="stop" errorTitle="M. ou Mme" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B25:B44" type="custom">
-      <formula1>ISTEXT(_xlfn.ORG.LIBREOFFICE.REGEX(B25,"M\.|Mme"))</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
     <dataValidation allowBlank="false" errorStyle="stop" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A49" type="whole">
       <formula1>-1</formula1>
       <formula2>0</formula2>
@@ -1890,6 +1886,10 @@
       <formula1>ISTEXT(_xlfn.ORG.LIBREOFFICE.REGEX(I25,"^[0-9]{7}[A-Z]$"))</formula1>
       <formula2>0</formula2>
     </dataValidation>
+    <dataValidation allowBlank="false" error="C'est “M.” ou “Mme”. &#10;Pas d'espace dans tous les sens, pas d’abbréviation bizarre." errorStyle="stop" errorTitle="M. ou Mme" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B25:B44" type="custom">
+      <formula1>IF(B25=or("M.","Mme"),TRUE())</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/template2021-2022.xlsx
+++ b/template2021-2022.xlsx
@@ -188,12 +188,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
     <numFmt numFmtId="166" formatCode="@"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="0.########"/>
+    <numFmt numFmtId="168" formatCode="&quot;VRAI&quot;;&quot;VRAI&quot;;&quot;FAUX&quot;"/>
+    <numFmt numFmtId="169" formatCode="0.########"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -450,7 +451,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -543,6 +544,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
@@ -575,7 +580,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -725,11 +730,11 @@
   </sheetPr>
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.42"/>
@@ -1109,6 +1114,7 @@
         <f aca="false">IF(OR(J25="Donnée manquante",J25=""),"",$D$64-SUM($J$25:J25,$C$49))</f>
         <v/>
       </c>
+      <c r="L25" s="23"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="18" t="str">
@@ -1507,51 +1513,51 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="23" t="str">
+      <c r="A44" s="24" t="str">
         <f aca="false">$A$64</f>
         <v>Ain (01)</v>
       </c>
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="26" t="str">
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="27" t="str">
         <f aca="false">IF(AND(B44="",C44="",D44="",E44="",G44="",H44="",I44=""),"",(IF(OR(B44="",C44="",D44="",E44="",G44="",H44="",I44=""),"Donnée manquante",((E44*60+F44)/(G44*60)))))</f>
         <v/>
       </c>
-      <c r="K44" s="27" t="str">
+      <c r="K44" s="28" t="str">
         <f aca="false">IF(OR(J44="Donnée manquante",J44=""),"",$D$64-SUM($J$25:J44,$C$49))</f>
         <v/>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D46" s="28" t="s">
+      <c r="D46" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
     </row>
     <row r="47" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="29" t="s">
+      <c r="A47" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="28"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
     </row>
     <row r="48" customFormat="false" ht="52.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="14" t="s">
@@ -1563,174 +1569,174 @@
       <c r="C48" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="28"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
     </row>
     <row r="49" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="30"/>
-      <c r="B49" s="26" t="n">
+      <c r="A49" s="31"/>
+      <c r="B49" s="27" t="n">
         <f aca="false">C49*1607/7</f>
         <v>0</v>
       </c>
-      <c r="C49" s="31" t="n">
+      <c r="C49" s="32" t="n">
         <f aca="false">A49*3.5/1607</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="29" t="s">
+      <c r="A51" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B51" s="29"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="32" t="s">
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="H51" s="32"/>
-      <c r="I51" s="32"/>
-      <c r="J51" s="32"/>
-      <c r="K51" s="32"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="33"/>
+      <c r="K51" s="33"/>
     </row>
     <row r="52" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="33" t="s">
+      <c r="A52" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B52" s="33"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33" t="s">
+      <c r="B52" s="34"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="32"/>
-      <c r="I52" s="32"/>
-      <c r="J52" s="32"/>
-      <c r="K52" s="32"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="33"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
     </row>
     <row r="53" customFormat="false" ht="47.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="34" t="s">
+      <c r="A53" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B53" s="34"/>
-      <c r="C53" s="35" t="s">
+      <c r="B53" s="35"/>
+      <c r="C53" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="D53" s="34" t="s">
+      <c r="D53" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="E53" s="34"/>
-      <c r="F53" s="35" t="s">
+      <c r="E53" s="35"/>
+      <c r="F53" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="G53" s="32"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="32"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="32"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="33"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="33"/>
     </row>
     <row r="54" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="36"/>
-      <c r="B54" s="36"/>
-      <c r="C54" s="37"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="32"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="32"/>
+      <c r="A54" s="37"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="33"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="33"/>
     </row>
     <row r="55" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="36"/>
-      <c r="B55" s="36"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="36"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="32"/>
-      <c r="J55" s="32"/>
-      <c r="K55" s="32"/>
+      <c r="A55" s="37"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="33"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="33"/>
     </row>
     <row r="56" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="36"/>
-      <c r="B56" s="36"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="36"/>
-      <c r="E56" s="36"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="32"/>
-      <c r="J56" s="32"/>
-      <c r="K56" s="32"/>
+      <c r="A56" s="37"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="33"/>
+      <c r="I56" s="33"/>
+      <c r="J56" s="33"/>
+      <c r="K56" s="33"/>
     </row>
     <row r="57" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="38"/>
-      <c r="B57" s="38"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="38"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="39"/>
-      <c r="G57" s="32"/>
-      <c r="H57" s="32"/>
-      <c r="I57" s="32"/>
-      <c r="J57" s="32"/>
-      <c r="K57" s="32"/>
+      <c r="A57" s="39"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="33"/>
+      <c r="J57" s="33"/>
+      <c r="K57" s="33"/>
     </row>
     <row r="58" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="29" t="s">
+      <c r="A58" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B58" s="29"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="30"/>
     </row>
     <row r="59" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="40" t="s">
+      <c r="A59" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="B59" s="40"/>
-      <c r="C59" s="41" t="n">
+      <c r="B59" s="41"/>
+      <c r="C59" s="42" t="n">
         <f aca="false">SUM(C54:C57)</f>
         <v>0</v>
       </c>
-      <c r="D59" s="40" t="s">
+      <c r="D59" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="E59" s="40"/>
-      <c r="F59" s="41" t="n">
+      <c r="E59" s="41"/>
+      <c r="F59" s="42" t="n">
         <f aca="false">SUM(F54:F57)</f>
         <v>0</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="42" t="s">
+      <c r="A61" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="B61" s="42"/>
-      <c r="C61" s="42"/>
-      <c r="D61" s="42"/>
-      <c r="E61" s="42"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="42"/>
-      <c r="H61" s="42"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="43"/>
+      <c r="H61" s="43"/>
     </row>
     <row r="62" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="43" t="s">
+      <c r="A62" s="44" t="s">
         <v>16</v>
       </c>
       <c r="B62" s="15" t="s">
@@ -1748,7 +1754,7 @@
       <c r="H62" s="16"/>
     </row>
     <row r="63" customFormat="false" ht="47.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="43"/>
+      <c r="A63" s="44"/>
       <c r="B63" s="15" t="s">
         <v>47</v>
       </c>
@@ -1768,39 +1774,39 @@
       <c r="H63" s="16"/>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="44" t="s">
+      <c r="A64" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="B64" s="45" t="n">
+      <c r="B64" s="46" t="n">
         <v>0.567</v>
       </c>
-      <c r="C64" s="45" t="n">
+      <c r="C64" s="46" t="n">
         <f aca="false">F59-C59</f>
         <v>0</v>
       </c>
-      <c r="D64" s="45" t="n">
+      <c r="D64" s="46" t="n">
         <f aca="false">B64+C64</f>
         <v>0.567</v>
       </c>
-      <c r="E64" s="45" t="n">
+      <c r="E64" s="46" t="n">
         <f aca="false">SUM(J25:J44)</f>
         <v>0</v>
       </c>
-      <c r="F64" s="45" t="n">
+      <c r="F64" s="46" t="n">
         <f aca="false">C49</f>
         <v>0</v>
       </c>
-      <c r="G64" s="46" t="str">
+      <c r="G64" s="47" t="str">
         <f aca="false">IF(SUM(E64:F64)&gt;D64,"Vous dépassez de "&amp;ROUND((SUM(E64:F64)-D64),3)&amp;" ETP",IF(SUM(E64:F64)&lt;=D64,"Vous rendez "&amp;ABS(ROUND(SUM(E64:F64)-D64,3))&amp;" ETP","Erreur"))</f>
         <v>Vous rendez 0,567 ETP</v>
       </c>
-      <c r="H64" s="46"/>
-      <c r="I64" s="47" t="str">
+      <c r="H64" s="47"/>
+      <c r="I64" s="48" t="str">
         <f aca="false">IF(E64+F64&gt;D64,"Trop d’ETP consommés : votre tableau sera refusé","Règles fédérales respectées")</f>
         <v>Règles fédérales respectées</v>
       </c>
-      <c r="J64" s="47"/>
-      <c r="K64" s="47"/>
+      <c r="J64" s="48"/>
+      <c r="K64" s="48"/>
     </row>
     <row r="65" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="17"/>
@@ -1887,7 +1893,7 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="false" error="C'est “M.” ou “Mme”. &#10;Pas d'espace dans tous les sens, pas d’abbréviation bizarre." errorStyle="stop" errorTitle="M. ou Mme" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B25:B44" type="custom">
-      <formula1>IF(B25=or("M.","Mme"),TRUE())</formula1>
+      <formula1>IF(OR(B25="M.",B25="Mme"),TRUE())</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
